--- a/Oak Grove Mine, United States, M3577.xlsx
+++ b/Oak Grove Mine, United States, M3577.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oak Grove Mine, United States, M3577, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oak Grove Mine, United States, M3577, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">

--- a/Oak Grove Mine, United States, M3577.xlsx
+++ b/Oak Grove Mine, United States, M3577.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oak Grove Mine, United States, M3577, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oak Grove Mine, United States, M3577, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">

--- a/Oak Grove Mine, United States, M3577.xlsx
+++ b/Oak Grove Mine, United States, M3577.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oak Grove Mine, United States, M3577, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oak Grove Mine, United States, M3577, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">

--- a/Oak Grove Mine, United States, M3577.xlsx
+++ b/Oak Grove Mine, United States, M3577.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oak Grove Mine, United States, M3577, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Oak Grove Mine, United States, M3577, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
